--- a/team_specific_matrix/Wagner_A.xlsx
+++ b/team_specific_matrix/Wagner_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1916167664670659</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="C2">
-        <v>0.5568862275449101</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01197604790419162</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1497005988023952</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08982035928143713</v>
+        <v>0.08450704225352113</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02105263157894737</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="C3">
-        <v>0.02105263157894737</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01052631578947368</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7263157894736842</v>
+        <v>0.7131782945736435</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2210526315789474</v>
+        <v>0.2248062015503876</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0625</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0078125</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0390625</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.234375</v>
+        <v>0.2603550295857988</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.015625</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.140625</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="R6">
-        <v>0.109375</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="S6">
-        <v>0.390625</v>
+        <v>0.3964497041420119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05660377358490566</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02830188679245283</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03773584905660377</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2358490566037736</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1415094339622641</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="R7">
-        <v>0.1037735849056604</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="S7">
-        <v>0.3962264150943396</v>
+        <v>0.4027777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06367041198501873</v>
+        <v>0.0584958217270195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01123595505617977</v>
+        <v>0.01392757660167131</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06741573033707865</v>
+        <v>0.07520891364902507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1048689138576779</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03370786516853932</v>
+        <v>0.02785515320334262</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1310861423220974</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="R8">
-        <v>0.1235955056179775</v>
+        <v>0.1197771587743733</v>
       </c>
       <c r="S8">
-        <v>0.4644194756554307</v>
+        <v>0.467966573816156</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07936507936507936</v>
+        <v>0.07453416149068323</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007936507936507936</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06349206349206349</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.126984126984127</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02380952380952381</v>
+        <v>0.02484472049689441</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1031746031746032</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="R9">
-        <v>0.1031746031746032</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="S9">
-        <v>0.492063492063492</v>
+        <v>0.5093167701863354</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1019698725376593</v>
+        <v>0.102076124567474</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01622247972190035</v>
+        <v>0.01816608996539792</v>
       </c>
       <c r="E10">
-        <v>0.001158748551564311</v>
+        <v>0.0008650519031141869</v>
       </c>
       <c r="F10">
-        <v>0.06373117033603708</v>
+        <v>0.06055363321799308</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1367323290845887</v>
+        <v>0.1410034602076125</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01158748551564311</v>
+        <v>0.009515570934256055</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2120509849362688</v>
+        <v>0.208477508650519</v>
       </c>
       <c r="R10">
-        <v>0.08342989571263036</v>
+        <v>0.08477508650519031</v>
       </c>
       <c r="S10">
-        <v>0.373117033603708</v>
+        <v>0.3745674740484429</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1420118343195266</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1005917159763314</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="K11">
-        <v>0.2248520710059172</v>
+        <v>0.2310924369747899</v>
       </c>
       <c r="L11">
-        <v>0.514792899408284</v>
+        <v>0.4873949579831933</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01775147928994083</v>
+        <v>0.01680672268907563</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7272727272727273</v>
+        <v>0.7394957983193278</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2045454545454546</v>
+        <v>0.1848739495798319</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="L12">
-        <v>0.01136363636363636</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05681818181818182</v>
+        <v>0.05042016806722689</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01379310344827586</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2206896551724138</v>
+        <v>0.221105527638191</v>
       </c>
       <c r="I15">
-        <v>0.05517241379310345</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="J15">
-        <v>0.3517241379310345</v>
+        <v>0.3467336683417085</v>
       </c>
       <c r="K15">
-        <v>0.06206896551724138</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08275862068965517</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2137931034482759</v>
+        <v>0.2060301507537688</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009900990099009901</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1287128712871287</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="I16">
-        <v>0.1089108910891089</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="J16">
-        <v>0.4356435643564356</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="K16">
-        <v>0.0594059405940594</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0198019801980198</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04950495049504951</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1881188118811881</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02298850574712644</v>
+        <v>0.02064896755162242</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1724137931034483</v>
+        <v>0.1799410029498525</v>
       </c>
       <c r="I17">
-        <v>0.05747126436781609</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J17">
-        <v>0.4980842911877394</v>
+        <v>0.4837758112094395</v>
       </c>
       <c r="K17">
-        <v>0.09578544061302682</v>
+        <v>0.09144542772861357</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02681992337164751</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04980842911877394</v>
+        <v>0.05014749262536873</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07662835249042145</v>
+        <v>0.07669616519174041</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1205673758865248</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="I18">
-        <v>0.1205673758865248</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="J18">
-        <v>0.4822695035460993</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="K18">
-        <v>0.06382978723404255</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02127659574468085</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06382978723404255</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1276595744680851</v>
+        <v>0.1236559139784946</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02091020910209102</v>
+        <v>0.02102376599634369</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1968019680196802</v>
+        <v>0.1928702010968922</v>
       </c>
       <c r="I19">
-        <v>0.09348093480934809</v>
+        <v>0.08409506398537477</v>
       </c>
       <c r="J19">
-        <v>0.3911439114391144</v>
+        <v>0.3848263254113345</v>
       </c>
       <c r="K19">
-        <v>0.09471094710947109</v>
+        <v>0.1005484460694698</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01968019680196802</v>
+        <v>0.02010968921389397</v>
       </c>
       <c r="N19">
-        <v>0.001230012300123001</v>
+        <v>0.0009140767824497258</v>
       </c>
       <c r="O19">
-        <v>0.07872078720787208</v>
+        <v>0.0850091407678245</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1033210332103321</v>
+        <v>0.1106032906764168</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Wagner_A.xlsx
+++ b/team_specific_matrix/Wagner_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1830985915492958</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C2">
-        <v>0.5915492957746479</v>
+        <v>0.6033755274261603</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009389671361502348</v>
+        <v>0.008438818565400843</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1314553990610329</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08450704225352113</v>
+        <v>0.08438818565400844</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01550387596899225</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C3">
-        <v>0.02325581395348837</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02325581395348837</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7131782945736435</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2248062015503876</v>
+        <v>0.2312925170068027</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1290322580645161</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5483870967741935</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3225806451612903</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05325443786982249</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005917159763313609</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03550295857988166</v>
+        <v>0.0418848167539267</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2603550295857988</v>
+        <v>0.2617801047120419</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02366863905325444</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1420118343195266</v>
+        <v>0.1361256544502618</v>
       </c>
       <c r="R6">
-        <v>0.08284023668639054</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="S6">
-        <v>0.3964497041420119</v>
+        <v>0.4083769633507853</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05555555555555555</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02083333333333333</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04166666666666666</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2430555555555556</v>
+        <v>0.2134146341463415</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1388888888888889</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="R7">
-        <v>0.09722222222222222</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="S7">
-        <v>0.4027777777777778</v>
+        <v>0.4085365853658536</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0584958217270195</v>
+        <v>0.05583756345177665</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01392757660167131</v>
+        <v>0.01269035532994924</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07520891364902507</v>
+        <v>0.06852791878172589</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.116991643454039</v>
+        <v>0.1294416243654822</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02785515320334262</v>
+        <v>0.02791878172588833</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1197771587743733</v>
+        <v>0.1218274111675127</v>
       </c>
       <c r="R8">
-        <v>0.1197771587743733</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="S8">
-        <v>0.467966573816156</v>
+        <v>0.4720812182741117</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07453416149068323</v>
+        <v>0.07262569832402235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006211180124223602</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05590062111801242</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.124223602484472</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02484472049689441</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.08695652173913043</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="R9">
-        <v>0.1180124223602484</v>
+        <v>0.111731843575419</v>
       </c>
       <c r="S9">
-        <v>0.5093167701863354</v>
+        <v>0.5251396648044693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.102076124567474</v>
+        <v>0.1019157088122605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01816608996539792</v>
+        <v>0.01839080459770115</v>
       </c>
       <c r="E10">
-        <v>0.0008650519031141869</v>
+        <v>0.0007662835249042146</v>
       </c>
       <c r="F10">
-        <v>0.06055363321799308</v>
+        <v>0.06283524904214559</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1410034602076125</v>
+        <v>0.1417624521072797</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009515570934256055</v>
+        <v>0.00996168582375479</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.208477508650519</v>
+        <v>0.210727969348659</v>
       </c>
       <c r="R10">
-        <v>0.08477508650519031</v>
+        <v>0.08352490421455938</v>
       </c>
       <c r="S10">
-        <v>0.3745674740484429</v>
+        <v>0.3701149425287356</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1444866920152091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1218487394957983</v>
+        <v>0.1178707224334601</v>
       </c>
       <c r="K11">
-        <v>0.2310924369747899</v>
+        <v>0.2281368821292776</v>
       </c>
       <c r="L11">
-        <v>0.4873949579831933</v>
+        <v>0.4942965779467681</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01680672268907563</v>
+        <v>0.01520912547528517</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7394957983193278</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1848739495798319</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="K12">
-        <v>0.01680672268907563</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L12">
-        <v>0.008403361344537815</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05042016806722689</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3157894736842105</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02631578947368421</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02010050251256281</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.221105527638191</v>
+        <v>0.2155963302752294</v>
       </c>
       <c r="I15">
-        <v>0.06030150753768844</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="J15">
-        <v>0.3467336683417085</v>
+        <v>0.3486238532110092</v>
       </c>
       <c r="K15">
-        <v>0.05527638190954774</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01005025125628141</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08040201005025126</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2060301507537688</v>
+        <v>0.2155963302752294</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007575757575757576</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="I16">
-        <v>0.1136363636363636</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.4318181818181818</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.06818181818181818</v>
+        <v>0.08</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01515151515151515</v>
+        <v>0.02</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04545454545454546</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1818181818181818</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02064896755162242</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1799410029498525</v>
+        <v>0.1757105943152455</v>
       </c>
       <c r="I17">
-        <v>0.07079646017699115</v>
+        <v>0.07493540051679587</v>
       </c>
       <c r="J17">
-        <v>0.4837758112094395</v>
+        <v>0.4677002583979328</v>
       </c>
       <c r="K17">
-        <v>0.09144542772861357</v>
+        <v>0.09043927648578812</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02654867256637168</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05014749262536873</v>
+        <v>0.05167958656330749</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07669616519174041</v>
+        <v>0.08527131782945736</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005376344086021506</v>
+        <v>0.005</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1505376344086022</v>
+        <v>0.155</v>
       </c>
       <c r="I18">
-        <v>0.1075268817204301</v>
+        <v>0.105</v>
       </c>
       <c r="J18">
-        <v>0.4677419354838709</v>
+        <v>0.455</v>
       </c>
       <c r="K18">
-        <v>0.06451612903225806</v>
+        <v>0.06</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01612903225806452</v>
+        <v>0.025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06451612903225806</v>
+        <v>0.065</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1236559139784946</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02102376599634369</v>
+        <v>0.02030869212022746</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1928702010968922</v>
+        <v>0.190089358245329</v>
       </c>
       <c r="I19">
-        <v>0.08409506398537477</v>
+        <v>0.08285946385052803</v>
       </c>
       <c r="J19">
-        <v>0.3848263254113345</v>
+        <v>0.3972380178716491</v>
       </c>
       <c r="K19">
-        <v>0.1005484460694698</v>
+        <v>0.09991876523151909</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02010968921389397</v>
+        <v>0.02030869212022746</v>
       </c>
       <c r="N19">
-        <v>0.0009140767824497258</v>
+        <v>0.0008123476848090983</v>
       </c>
       <c r="O19">
-        <v>0.0850091407678245</v>
+        <v>0.08204711616571893</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1106032906764168</v>
+        <v>0.1064175467099919</v>
       </c>
     </row>
   </sheetData>
